--- a/CPR_Missing_Fields.xlsx
+++ b/CPR_Missing_Fields.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Mising field</t>
   </si>
   <si>
-    <t>Reporting_Date</t>
-  </si>
-  <si>
-    <t>Sub_Category</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -126,21 +120,6 @@
     <t>Is_Industrial_Deafness</t>
   </si>
   <si>
-    <t>Action_Required</t>
-  </si>
-  <si>
-    <t>RTW_Impacting</t>
-  </si>
-  <si>
-    <t>Hindsight</t>
-  </si>
-  <si>
-    <t>Active_Weekly</t>
-  </si>
-  <si>
-    <t>Active_Medical</t>
-  </si>
-  <si>
     <t>Cost_Code</t>
   </si>
   <si>
@@ -153,152 +132,766 @@
     <t>CC_Current</t>
   </si>
   <si>
-    <t>Entitlement_Weeks</t>
-  </si>
-  <si>
-    <t>Weeks_In</t>
-  </si>
-  <si>
-    <t>Weeks_Band</t>
-  </si>
-  <si>
-    <t>NCMM_Complete_Action_Due</t>
-  </si>
-  <si>
-    <t>NCMM_Complete_Action_Due_2</t>
-  </si>
-  <si>
-    <t>NCMM_Complete_Remaining_Days</t>
-  </si>
-  <si>
-    <t>NCMM_Complete_Remaining_Days_2</t>
-  </si>
-  <si>
-    <t>NCMM_Prepare_Action_Due</t>
-  </si>
-  <si>
-    <t>NCMM_Prepare_Action_Due_2</t>
-  </si>
-  <si>
-    <t>NCMM_Prepare_Remaining_Days</t>
-  </si>
-  <si>
-    <t>NCMM_Prepare_Remaining_Days_2</t>
-  </si>
-  <si>
-    <t>NCMM_Actions_This_Week</t>
-  </si>
-  <si>
-    <t>NCMM_Actions_Next_Week</t>
-  </si>
-  <si>
-    <t>NCMM_Actions_Next_Week_2</t>
-  </si>
-  <si>
-    <t>Med_Cert_Status_Prev_1_Week</t>
-  </si>
-  <si>
-    <t>Med_Cert_Status_Prev_2_Week</t>
-  </si>
-  <si>
-    <t>Med_Cert_Status_Prev_3_Week</t>
-  </si>
-  <si>
-    <t>Med_Cert_Status_Prev_4_Week</t>
-  </si>
-  <si>
-    <t>Med_Cert_Status</t>
-  </si>
-  <si>
     <t>Capacity</t>
   </si>
   <si>
-    <t>CLAIM_DETAIL / Work_Hours</t>
-  </si>
-  <si>
-    <t>CAD_AUDIT / Date_Claim_Closed</t>
-  </si>
-  <si>
-    <t>CAD_AUDIT / date_claim_received</t>
-  </si>
-  <si>
-    <t>CAD_AUDIT / Date_Claim_reopened</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / Cost_Code</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / Cost_Code2</t>
-  </si>
-  <si>
-    <t>amendment_exemptions / is_exempt</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / Employee_no</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / Employment_Terminated_Reason</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / Nature_of_Injury</t>
-  </si>
-  <si>
-    <t>COST_CODE / Policy_No &amp; Short_Name</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / Mechanism_of_Injury &amp; Nature_of_Injury</t>
-  </si>
-  <si>
-    <t>EMICS TABLE / field</t>
-  </si>
-  <si>
-    <t>CLAIMS_OFFICERS / Grp</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / Phone_no</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / Date_Notice_Given</t>
-  </si>
-  <si>
-    <t>POLICY_TERM_DETAIL / LEGAL_NAME</t>
-  </si>
-  <si>
-    <t>POLICY_TERM_DETAIL / Tariff_No</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Calculated Fields</t>
-  </si>
-  <si>
     <t>Missing field of CPR Summary Report</t>
   </si>
   <si>
-    <t>CLAIM_DETAIL / Work_Status_Code</t>
-  </si>
-  <si>
-    <t>TIME_LOST_DETAIL / RTW_Goal</t>
-  </si>
-  <si>
-    <t>CLAIMS_OFFICERS / First_Name &amp; Last_Name</t>
-  </si>
-  <si>
-    <t>Date generate data</t>
-  </si>
-  <si>
-    <t>Summarized Fields</t>
-  </si>
-  <si>
-    <t>CLAIM_DETAIL / date_claim_received</t>
+    <t>EMICS TABLE / Columns</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIMS_OFFICERS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / First_Name &amp; Last_Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PREMIUM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / BTP &amp; Process_Flags &amp; WAGES0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BROKER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Broker_Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POLICY_TERM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Tariff_No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POLICY_TERM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / LEGAL_NAME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Employee_no</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Phone_no</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / date_claim_received</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Date_Notice_Given</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAD_AUDIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Date_Claim_Closed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAD_AUDIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / date_claim_received</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAD_AUDIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Date_Claim_reopened</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESTIMATE_DETAILS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / claim &amp; amount &amp; estimate_type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Work_Status_Code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Work_Hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIME_LOST_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / RTW_Goal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COST_CODE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Policy_No &amp; Short_Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COST_CODE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ Policy_No &amp; Short_Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Payment_Recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Claim_No &amp; Trans_Amount &amp; Transaction_date &amp; Trans_Amount &amp; itc &amp; dam &amp; Payment_Type &amp; Estimate_type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CLAIMS_OFFICERS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CLAIM_DETAIL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ Employment_Terminated_Reason</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Nature_of_Injury</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Mechanism_of_Injury &amp; Nature_of_Injury</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Employment_Terminated_Reason</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amendment_exemptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / is_exempt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLAIM_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Cost_Code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CLAIM_DETAIL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ Cost_Code2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANZSIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / DESCRIPTION and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACTIVITY_DETAIL_AUDIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Tariff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UnderWriters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Alias</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Payment_Recovery / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Claim_No &amp; Transaction_date &amp; </t>
+    </r>
+  </si>
+  <si>
+    <t>Need same  table and columns as above (Total_Recoveries)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum up payment amount of transactions follow conditions:
+- Payment type like “ott001”
+- Estimate type = “55”
+- Transaction date &lt; “End date”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum up payment amount of transactions follow conditions:
+- Payment type = “06” or payment type like “cha%” or payment type like “chx%”
+- Estimate type = “55”
+- Transaction date &lt; “End date”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum up payment amount of transactions follow conditions:
+- Payment type like “rma%” or payment type like “rmx%”
+- Estimate type = “55”
+- Transaction date &lt; “End date”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum up payment amount of transactions follow conditions:
+- Payment type like “osa%” or payment type like “osx%”
+- Estimate type = “55”
+- Transaction date &lt; “End date”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum up payment amount of transactions follow conditions:
+- Payment type = “05” or payment type like “pta%” or payment type like “ptx%”
+- Estimate type = “55”
+- Transaction date &lt; “End date”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum up payment amount of transactions follow conditions:
+- Payment type like “or%” or payment type = “04”
+- Transaction date &lt;= “End date”
+- Transaction date &gt;= DATEADD(MM, -3, “End date”)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total of two results:
+- Sum up payment amount of transactions follow condition:  Estimate type = “76”
+- Sum up payment amount of transactions follow condition:  Estimate type in (“70”,”71”,”72”,”73”,”74”,”75”,”77”)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A claim is determined as “Common law” if it meets follow conditions: 
+- Estimate amount &gt; 0
+- Estimate type = “57”
+</t>
+  </si>
+  <si>
+    <t>Need 2 columns from 2 different tables:
+- column DESCRIPTION from ANZSIC 
+- and column Tariff from ACTIVITY_DETAIL_AUDIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +903,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,10 +941,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,22 +1254,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,26 +1277,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>89</v>
+      <c r="B4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>90</v>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,39 +1312,42 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>90</v>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>90</v>
+      <c r="B10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>90</v>
+      <c r="B11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,7 +1395,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +1403,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,15 +1411,18 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,79 +1430,88 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
-        <v>84</v>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,298 +1519,93 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B23:B29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CPR_Missing_Fields.xlsx
+++ b/CPR_Missing_Fields.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Mising field</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Claims_Officer_Name</t>
-  </si>
-  <si>
     <t>EMPL_SIZE</t>
   </si>
   <si>
@@ -86,28 +80,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CLAIMS_OFFICERS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / First_Name &amp; Last_Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>POLICY_TERM_DETAIL</t>
     </r>
     <r>
@@ -240,37 +212,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">CLAIMS_OFFICERS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">CLAIM_DETAIL </t>
     </r>
     <r>
@@ -437,9 +378,6 @@
       </rPr>
       <t xml:space="preserve"> / Deemed_HoursPerWeek</t>
     </r>
-  </si>
-  <si>
-    <t>Entitlement_Weeks</t>
   </si>
   <si>
     <t>Missing fields of CPR Summary Report</t>
@@ -491,16 +429,13 @@
     <t>Need 2 columns from 2 different tables:
 - Column DESCRIPTION from ANZSIC 
 - And column Tariff from ACTIVITY_DETAIL_AUDIT</t>
-  </si>
-  <si>
-    <t>Calculate the entitlement weeks value for each claim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,12 +454,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,11 +492,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,11 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,21 +814,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,14 +844,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -931,18 +863,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,47 +935,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
